--- a/public/preprocessing/@GusMuwafiq.xlsx
+++ b/public/preprocessing/@GusMuwafiq.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13350</v>
+        <v>28955</v>
       </c>
       <c r="C2" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -492,17 +497,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>['rt', 'jangan', 'mengaku', 'umat', 'nya', 'rasulullah', 'jika', 'tidak', 'menciptakan', 'keamanan', 'dalam', 'suatu', 'negara', 'gus', 'muwafiq']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['mengaku', 'ummat', 'rasulullah', 'menciptakan', 'keamanan', 'negara', 'gus', 'muwafiq']</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['aku', 'ummat', 'rasulullah', 'cipta', 'aman', 'negara', 'gus', 'muwafiq']</t>
+          <t>['mengaku', 'umat', 'rasulullah', 'menciptakan', 'keamanan', 'negara', 'gus', 'muwafiq']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['aku', 'umat', 'rasulullah', 'cipta', 'aman', 'negara', 'gus', 'muwafiq']</t>
         </is>
       </c>
     </row>
@@ -511,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13351</v>
+        <v>28956</v>
       </c>
       <c r="C3" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
@@ -524,15 +534,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -543,10 +558,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13352</v>
+        <v>28957</v>
       </c>
       <c r="C4" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -560,15 +575,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>['gus', 'muwafiq', 'adakah', 'literatur', 'kuno', 'yang', 'membahas', 'asal', 'usul', 'kata', 'santri']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>['gus', 'muwafiq', 'adakah', 'literatur', 'kuno', 'membahas', 'usul', 'santri']</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>['gus', 'muwafiq', 'ada', 'literatur', 'kuno', 'bahas', 'usul', 'santri']</t>
         </is>
@@ -579,10 +599,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13353</v>
+        <v>28958</v>
       </c>
       <c r="C5" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -596,17 +616,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>['amin']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['amiin']</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['amiin']</t>
+          <t>['amin']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['amin']</t>
         </is>
       </c>
     </row>
@@ -615,10 +640,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13354</v>
+        <v>28959</v>
       </c>
       <c r="C6" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -632,17 +657,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>['hsn', 'sudah', 'lewat', 'tapi', 'perjuang', 'menjaga', 'negara, kesatuan, republik, indonesia', 'jangan', 'sampai', 'lewat', 'dan', 'telat', 'saatnya', 'kembali', 'bertugas', 'barisan, serba, guna']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['hsn', 'perjuang', 'menjaga', 'nkri', 'telat', 'bertugas', 'banser']</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['hsn', 'juang', 'jaga', 'nkri', 'telat', 'tugas', 'banser']</t>
+          <t>['hsn', 'perjuang', 'menjaga', 'negara, kesatuan, republik, indonesia', 'telat', 'bertugas', 'barisan, serba, guna']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['hsn', 'juang', 'jaga', 'negara satu republik indonesia', 'telat', 'tugas', 'baris serba guna']</t>
         </is>
       </c>
     </row>
@@ -651,10 +681,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13355</v>
+        <v>28960</v>
       </c>
       <c r="C7" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -668,15 +698,20 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>['live', 'now']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>['live', 'now']</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>['live', 'now']</t>
         </is>
@@ -687,10 +722,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13356</v>
+        <v>28961</v>
       </c>
       <c r="C8" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -704,17 +739,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>['gus', 'muwafiq', 'menjawab', 'fenomena', 'indonesia', 'hari', 'ini', 'semoga', 'indonesia', 'diberikan', 'keamanan']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>['gus', 'muwafiq', 'merespon', 'fenomena', 'indonesia', 'semoga', 'indonesia', 'keamanan']</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['gus', 'muwafiq', 'merespon', 'fenomena', 'indonesia', 'moga', 'indonesia', 'aman']</t>
+          <t>['gus', 'muwafiq', 'fenomena', 'indonesia', 'semoga', 'indonesia', 'keamanan']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['gus', 'muwafiq', 'fenomena', 'indonesia', 'moga', 'indonesia', 'aman']</t>
         </is>
       </c>
     </row>
@@ -723,10 +763,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13357</v>
+        <v>28962</v>
       </c>
       <c r="C9" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -740,15 +780,20 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>['simak', 'keseruannya', 'sak', 'silo', 'sowan', 'gus', 'muwafiq', 'via']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>['simak', 'keseruannya', 'sak', 'silo', 'sowan', 'gus', 'muwafiq', 'via']</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>['simak', 'seru', 'sak', 'silo', 'sowan', 'gus', 'muwafiq', 'via']</t>
         </is>
@@ -759,10 +804,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13358</v>
+        <v>28963</v>
       </c>
       <c r="C10" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -776,15 +821,20 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>['aktifkan', 'nsp', 'gus', 'muwafiq']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>['aktifkan', 'nsp', 'gus', 'muwafiq']</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>['aktif', 'nsp', 'gus', 'muwafiq']</t>
         </is>
@@ -795,10 +845,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>13359</v>
+        <v>28964</v>
       </c>
       <c r="C11" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
@@ -808,15 +858,20 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -827,10 +882,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>13360</v>
+        <v>28965</v>
       </c>
       <c r="C12" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -844,15 +899,20 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>['rt', 'duet', 'gus', 'muwafiq', 'dengan', 'gus', 'menteri', 'cover', 'iwan', 'fals', 'sumbang', 'selamat', 'menikmati']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>['duet', 'gus', 'muwafiq', 'gus', 'menteri', 'cover', 'iwan', 'fals', 'sumbang', 'selamat', 'menikmati']</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>['duet', 'gus', 'muwafiq', 'gus', 'menteri', 'cover', 'iwan', 'fals', 'sumbang', 'selamat', 'nikmat']</t>
         </is>
@@ -863,10 +923,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>13361</v>
+        <v>28966</v>
       </c>
       <c r="C13" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -880,17 +940,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>['silakan', 'subscribe', 'youtube', 'channel', 'di', 'dan', 'untuk', 'mendap']</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>['silahkan', 'subscribe', 'youtube', 'channel', 'mendap']</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['silah', 'subscribe', 'youtube', 'channel', 'mendap']</t>
+          <t>['silakan', 'subscribe', 'youtube', 'channel', 'mendap']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['sila', 'subscribe', 'youtube', 'channel', 'mendap']</t>
         </is>
       </c>
     </row>
@@ -899,10 +964,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13362</v>
+        <v>28967</v>
       </c>
       <c r="C14" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -916,15 +981,20 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>['gus', 'muwafiq', 'tahapan', 'pelajaran', 'rukun', 'islam', 'pada', 'awal', 'penebaran', 'islam', 'di', 'via']</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>['gus', 'muwafiq', 'tahapan', 'pelajaran', 'rukun', 'islam', 'penebaran', 'islam', 'via']</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>['gus', 'muwafiq', 'tahap', 'ajar', 'rukun', 'islam', 'tebar', 'islam', 'via']</t>
         </is>
@@ -935,10 +1005,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13363</v>
+        <v>28968</v>
       </c>
       <c r="C15" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -952,17 +1022,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>['gus', 'muwafiq', 'umat', 'nabi', 'muhammad', 'punya', 'watak', 'tidak', 'membedabedakan', 'anak', 'via']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>['gus', 'muwafiq', 'ummat', 'nabi', 'muhammad', 'watak', 'membedabedakan', 'anak', 'via']</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['gus', 'muwafiq', 'ummat', 'nabi', 'muhammad', 'watak', 'membedabedakan', 'anak', 'via']</t>
+          <t>['gus', 'muwafiq', 'umat', 'nabi', 'muhammad', 'watak', 'membedabedakan', 'anak', 'via']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['gus', 'muwafiq', 'umat', 'nabi', 'muhammad', 'watak', 'membedabedakan', 'anak', 'via']</t>
         </is>
       </c>
     </row>
@@ -971,10 +1046,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13364</v>
+        <v>28969</v>
       </c>
       <c r="C16" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -988,17 +1063,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>['gus', 'muwafiq', 'ahlus, sunah', 'wah', 'jamaah', 'menjembatani', 'orang', 'yang', 'tidak', 'bertem', 'via']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>['gus', 'muwafiq', 'ahlusunnah', 'wal', 'jamaah', 'menjembatani', 'orang', 'bertem', 'via']</t>
-        </is>
-      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['gus', 'muwafiq', 'ahlusunnah', 'wal', 'jamaah', 'jembatan', 'orang', 'tem', 'via']</t>
+          <t>['gus', 'muwafiq', 'ahlus, sunah', 'jamaah', 'menjembatani', 'orang', 'bertem', 'via']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['gus', 'muwafiq', 'ahlus sunah', 'jamaah', 'jembatan', 'orang', 'tem', 'via']</t>
         </is>
       </c>
     </row>
@@ -1007,10 +1087,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>13365</v>
+        <v>28970</v>
       </c>
       <c r="C17" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1024,17 +1104,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>['ceramah', 'gus', 'muwafiq', 'umat', 'islam', 'jangan', 'mau', 'dibawa', 'mundur', 'via']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>['ceramah', 'gus', 'muwafiq', 'ummat', 'islam', 'dibawa', 'mundur', 'via']</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['ceramah', 'gus', 'muwafiq', 'ummat', 'islam', 'bawa', 'mundur', 'via']</t>
+          <t>['ceramah', 'gus', 'muwafiq', 'umat', 'islam', 'dibawa', 'mundur', 'via']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['ceramah', 'gus', 'muwafiq', 'umat', 'islam', 'bawa', 'mundur', 'via']</t>
         </is>
       </c>
     </row>
@@ -1043,10 +1128,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13366</v>
+        <v>28971</v>
       </c>
       <c r="C18" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1060,15 +1145,20 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>['ceramah', 'gus', 'muwafiq', 'perempuan', 'adalah', 'tiang', 'agama', 'via']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>['ceramah', 'gus', 'muwafiq', 'perempuan', 'tiang', 'agama', 'via']</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>['ceramah', 'gus', 'muwafiq', 'perempuan', 'tiang', 'agama', 'via']</t>
         </is>
@@ -1079,10 +1169,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>13367</v>
+        <v>28972</v>
       </c>
       <c r="C19" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1096,17 +1186,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>['gus', 'muwafiq', 'sub', 'indonesia', 'mudahnya', 'generasi', 'millenial', 'memahami', 'kisah', 'rasu', 'via']</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>['gus', 'muwafiq', 'sub', 'indo', 'mudahnya', 'generasi', 'millenial', 'memahami', 'kisah', 'rasu', 'via']</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['gus', 'muwafiq', 'sub', 'indo', 'mudah', 'generasi', 'millenial', 'paham', 'kisah', 'rasu', 'via']</t>
+          <t>['gus', 'muwafiq', 'sub', 'indonesia', 'mudahnya', 'generasi', 'millenial', 'memahami', 'kisah', 'rasu', 'via']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['gus', 'muwafiq', 'sub', 'indonesia', 'mudah', 'generasi', 'millenial', 'paham', 'kisah', 'rasu', 'via']</t>
         </is>
       </c>
     </row>
@@ -1115,10 +1210,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>13368</v>
+        <v>28973</v>
       </c>
       <c r="C20" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1132,15 +1227,20 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>['ceramah', 'gus', 'muwafiq', 'nusantara', 'itu', 'sudah', 'terkenal', 'dari', 'zaman', 'dulu', 'via']</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>['ceramah', 'gus', 'muwafiq', 'nusantara', 'terkenal', 'zaman', 'via']</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>['ceramah', 'gus', 'muwafiq', 'nusantara', 'kenal', 'zaman', 'via']</t>
         </is>
@@ -1151,10 +1251,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>13369</v>
+        <v>28974</v>
       </c>
       <c r="C21" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1168,15 +1268,20 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>['gus', 'muwafiq', 'menyanyi', 'dan', 'main', 'gitar', 'rindu', 'aktivitas', 'normal', 'via']</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>['gus', 'muwafiq', 'menyanyi', 'main', 'gitar', 'rindu', 'aktivitas', 'normal', 'via']</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>['gus', 'muwafiq', 'nyanyi', 'main', 'gitar', 'rindu', 'aktivitas', 'normal', 'via']</t>
         </is>
@@ -1187,10 +1292,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>13370</v>
+        <v>28975</v>
       </c>
       <c r="C22" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1204,15 +1309,20 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>['gus', 'muwafiq', 'peran', 'bung', 'karno', 'dan', 'kh', 'hasyim', 'asyari', 'via']</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>['gus', 'muwafiq', 'peran', 'karno', 'kh', 'hasyim', 'asyari', 'via']</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>['gus', 'muwafiq', 'peran', 'karno', 'kh', 'hasyim', 'asyari', 'via']</t>
         </is>
@@ -1223,10 +1333,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>13371</v>
+        <v>28976</v>
       </c>
       <c r="C23" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1240,15 +1350,20 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>['ceramah', 'gus', 'muwafiq', 'halal', 'bi', 'halal', 'adalah', 'prestasi', 'orang', 'nusantara', 'lewat']</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>['ceramah', 'gus', 'muwafiq', 'halal', 'bi', 'halal', 'prestasi', 'orang', 'nusantara']</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>['ceramah', 'gus', 'muwafiq', 'halal', 'bi', 'halal', 'prestasi', 'orang', 'nusantara']</t>
         </is>
@@ -1259,10 +1374,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>13372</v>
+        <v>28977</v>
       </c>
       <c r="C24" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1276,15 +1391,20 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>['gus', 'muwafiq', 'tentang', 'covid', 'via']</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>['gus', 'muwafiq', 'covid', 'via']</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>['gus', 'muwafiq', 'covid', 'via']</t>
         </is>
@@ -1295,10 +1415,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>13373</v>
+        <v>28978</v>
       </c>
       <c r="C25" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
@@ -1308,15 +1428,20 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1327,10 +1452,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>13374</v>
+        <v>28979</v>
       </c>
       <c r="C26" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1344,15 +1469,20 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>['aku', 'berharap', 'diselamatkan', 'dari', 'panas', 'derita', 'wabah', 'yang', 'bikin', 'sengsara', 'dengan', 'wasilah', 'derajat', 'luhur', 'lima', 'pribadi', 'mul']</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>['berharap', 'diselamatkan', 'panas', 'derita', 'wabah', 'sengsara', 'wasilah', 'derajat', 'luhur', 'pribadi', 'mul']</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>['harap', 'selamat', 'panas', 'derita', 'wabah', 'sengsara', 'wasilah', 'derajat', 'luhur', 'pribadi', 'mul']</t>
         </is>
@@ -1363,10 +1493,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>13375</v>
+        <v>28980</v>
       </c>
       <c r="C27" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1380,15 +1510,20 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>['ceramah', 'gus', 'muwafiq', 'terbaru', 'acara', 'harlah', 'nu', 'ke', 'di', 'unu', 'yogyakarta', 'via']</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>['ceramah', 'gus', 'muwafiq', 'terbaru', 'acara', 'harlah', 'nu', 'unu', 'yogyakarta', 'via']</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>['ceramah', 'gus', 'muwafiq', 'baru', 'acara', 'harlah', 'nu', 'unu', 'yogyakarta', 'via']</t>
         </is>
@@ -1399,10 +1534,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>13376</v>
+        <v>28981</v>
       </c>
       <c r="C28" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1416,15 +1551,20 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>['gus', 'muwafiq', 'takziyah', 'prosesi', 'pemakaman', 'kh', 'ayib', 'abbas', 'buntet', 'via']</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>['gus', 'muwafiq', 'takziyah', 'prosesi', 'pemakaman', 'kh', 'ayib', 'abbas', 'buntet', 'via']</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>['gus', 'muwafiq', 'takziyah', 'prosesi', 'makam', 'kh', 'ayib', 'abbas', 'buntet', 'via']</t>
         </is>
@@ -1435,10 +1575,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>13377</v>
+        <v>28982</v>
       </c>
       <c r="C29" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1452,15 +1592,20 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>['haul', 'kh', 'hambali', 'lasem', 'ceramah', 'gus', 'muwafiq']</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>['haul', 'kh', 'hambali', 'lasem', 'ceramah', 'gus', 'muwafiq']</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>['haul', 'kh', 'hambali', 'lasem', 'ceramah', 'gus', 'muwafiq']</t>
         </is>
@@ -1471,10 +1616,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>13378</v>
+        <v>28983</v>
       </c>
       <c r="C30" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1488,17 +1633,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>['sang', 'kiai', 'menatap', 'keindahan', 'senja', 'yang', 'meneyelimuti', 'negeri', 'ini', 'dengan', 'hiasan', 'pelangi', 'yang', 'terlukis', 'di', 'angkasa', 'su']</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>['sang', 'kyai', 'menatap', 'keindahan', 'senja', 'meneyelimuti', 'negeri', 'hiasan', 'pelangi', 'terlukis', 'angkasa', 'su']</t>
-        </is>
-      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['sang', 'kyai', 'tatap', 'indah', 'senja', 'meneyelimuti', 'negeri', 'hias', 'pelangi', 'luk', 'angkasa', 'su']</t>
+          <t>['sang', 'kiai', 'menatap', 'keindahan', 'senja', 'meneyelimuti', 'negeri', 'hiasan', 'pelangi', 'terlukis', 'angkasa', 'su']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['sang', 'kiai', 'tatap', 'indah', 'senja', 'meneyelimuti', 'negeri', 'hias', 'pelangi', 'luk', 'angkasa', 'su']</t>
         </is>
       </c>
     </row>
@@ -1507,10 +1657,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>13379</v>
+        <v>28984</v>
       </c>
       <c r="C31" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1524,15 +1674,20 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>['gus', 'muwafiq', 'haul', 'simbah', 'khr', 'hambali', 'lasem', 'maret', 'via']</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>['gus', 'muwafiq', 'haul', 'simbah', 'khr', 'hambali', 'lasem', 'maret', 'via']</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>['gus', 'muwafiq', 'haul', 'simbah', 'khr', 'hambali', 'lasem', 'maret', 'via']</t>
         </is>
@@ -1543,10 +1698,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>13380</v>
+        <v>28985</v>
       </c>
       <c r="C32" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1560,15 +1715,20 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>['siapsiap', 'memasuki', 'bulan', 'rajab', 'untuk', 'puasa', 'sunnah', 'simak', 'keistimewaan', 'orang', 'yang', 'berpuasa', 'semoga', 'bermanfaat']</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>['siapsiap', 'memasuki', 'rajab', 'puasa', 'sunnah', 'simak', 'keistimewaan', 'orang', 'berpuasa', 'semoga', 'bermanfaat']</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>['siapsiap', 'pasuk', 'rajab', 'puasa', 'sunnah', 'simak', 'istimewa', 'orang', 'puasa', 'moga', 'manfaat']</t>
         </is>
@@ -1579,10 +1739,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>13381</v>
+        <v>28986</v>
       </c>
       <c r="C33" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1596,15 +1756,20 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>['gus', 'muwafiq', 'lagu', 'dealova', 'once', 'dewa', 'via']</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>['gus', 'muwafiq', 'lagu', 'dealova', 'once', 'dewa', 'via']</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>['gus', 'muwafiq', 'lagu', 'dealova', 'once', 'dewa', 'via']</t>
         </is>
@@ -1615,10 +1780,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>13382</v>
+        <v>28987</v>
       </c>
       <c r="C34" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1632,17 +1797,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>['gus', 'muwafiq', 'gus', 'yahya', 'dan', 'gus', 'yaqot', 'acara', 'rakornas', 'barisan, serba, guna', 'via']</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>['gus', 'muwafiq', 'gus', 'yahya', 'gus', 'yaqot', 'acara', 'rakornas', 'banser', 'via']</t>
-        </is>
-      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['gus', 'muwafiq', 'gus', 'yahya', 'gus', 'yaqot', 'acara', 'rakornas', 'banser', 'via']</t>
+          <t>['gus', 'muwafiq', 'gus', 'yahya', 'gus', 'yaqot', 'acara', 'rakornas', 'barisan, serba, guna', 'via']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['gus', 'muwafiq', 'gus', 'yahya', 'gus', 'yaqot', 'acara', 'rakornas', 'baris serba guna', 'via']</t>
         </is>
       </c>
     </row>
@@ -1651,10 +1821,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>13383</v>
+        <v>28988</v>
       </c>
       <c r="C35" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1668,15 +1838,20 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>['ceramah', 'gus', 'muwafiq', 'haul', 'raden', 'fatah', 'tidak', 'ada', 'ceritanya', 'orang', 'isl', 'via']</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>['ceramah', 'gus', 'muwafiq', 'haul', 'raden', 'fatah', 'ceritanya', 'orang', 'isl', 'via']</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>['ceramah', 'gus', 'muwafiq', 'haul', 'raden', 'fatah', 'cerita', 'orang', 'isl', 'via']</t>
         </is>
@@ -1687,10 +1862,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>13384</v>
+        <v>28989</v>
       </c>
       <c r="C36" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1704,15 +1879,20 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>['kenapa', 'kita', 'jadi', 'pengikut', 'nahdlatul', 'ulama', 'ini', 'penjelasan', 'gusmuwafiq']</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>['pengikut', 'nahdlatul', 'ulama', 'penjelasan', 'gusmuwafiq']</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>['ikut', 'nahdlatul', 'ulama', 'jelas', 'gusmuwafiq']</t>
         </is>
@@ -1723,10 +1903,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>13385</v>
+        <v>28990</v>
       </c>
       <c r="C37" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1740,15 +1920,20 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>['air', 'upas', 'simbol', 'kaum', 'migrannu']</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>['air', 'upas', 'simbol', 'kaum', 'migrannu']</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>['air', 'upas', 'simbol', 'kaum', 'migrannu']</t>
         </is>
@@ -1759,10 +1944,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>13386</v>
+        <v>28991</v>
       </c>
       <c r="C38" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1776,15 +1961,20 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>['cara', 'gus', 'muwafiq', 'atasi', 'murid', 'yang', 'burungnya', 'kenasantet']</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>['gus', 'muwafiq', 'atasi', 'murid', 'burungnya', 'kenasantet']</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>['gus', 'muwafiq', 'atas', 'murid', 'burung', 'kenasantet']</t>
         </is>
@@ -1795,10 +1985,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>13387</v>
+        <v>28992</v>
       </c>
       <c r="C39" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1812,15 +2002,20 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>['gus', 'muwafiq', 'fenomena', 'ustadzkarbitan']</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>['gus', 'muwafiq', 'fenomena', 'ustadzkarbitan']</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>['gus', 'muwafiq', 'fenomena', 'ustadzkarbitan']</t>
         </is>
@@ -1831,10 +2026,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>13388</v>
+        <v>28993</v>
       </c>
       <c r="C40" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1848,15 +2043,20 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>['gus', 'muwafiq', 'fenomena', 'ustadzkarbitan']</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>['gus', 'muwafiq', 'fenomena', 'ustadzkarbitan']</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>['gus', 'muwafiq', 'fenomena', 'ustadzkarbitan']</t>
         </is>
@@ -1867,10 +2067,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>13389</v>
+        <v>28994</v>
       </c>
       <c r="C41" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1884,15 +2084,20 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>['lakilaki', 'penyebab', 'seorang', 'istri', 'banyak', 'masukneraka']</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>['lakilaki', 'penyebab', 'istri', 'masukneraka']</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>['lakilaki', 'sebab', 'istri', 'masukneraka']</t>
         </is>
@@ -1903,10 +2108,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>13390</v>
+        <v>28995</v>
       </c>
       <c r="C42" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1920,15 +2125,20 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>['dimata', 'air', 'tidak', 'ada', 'air', 'mata', 'gus', 'muwafiq', 'duet', 'menterikemenaker']</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>['dimata', 'air', 'air', 'mata', 'gus', 'muwafiq', 'duet', 'menterikemenaker']</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>['mata', 'air', 'air', 'mata', 'gus', 'muwafiq', 'duet', 'menterikemenaker']</t>
         </is>
@@ -1939,10 +2149,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>13391</v>
+        <v>28996</v>
       </c>
       <c r="C43" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1956,15 +2166,20 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>['gus', 'muwafiq', 'mahallul', 'qiyam', 'dibatam']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>['gus', 'muwafiq', 'mahallul', 'qiyam', 'dibatam']</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>['gus', 'muwafiq', 'mahallul', 'qiyam', 'dibatam']</t>
         </is>
@@ -1975,10 +2190,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>13392</v>
+        <v>28997</v>
       </c>
       <c r="C44" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1992,15 +2207,20 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>['gus', 'muwafiq', 'bersama', 'presidenjokowi']</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>['gus', 'muwafiq', 'presidenjokowi']</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>['gus', 'muwafiq', 'presidenjokowi']</t>
         </is>
@@ -2011,10 +2231,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>13393</v>
+        <v>28998</v>
       </c>
       <c r="C45" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2028,15 +2248,20 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>['saya', 'menambahkan', 'video', 'ke', 'playlist', 'live', 'gresik', 'pelantikan', 'ipnu', 'ippnu', 'tanjangawan', 'gresik', 'bersama']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>['video', 'playlist', 'live', 'gresik', 'pelantikan', 'ipnu', 'ippnu', 'tanjangawan', 'gresik']</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>['video', 'playlist', 'live', 'gresik', 'lantik', 'ipnu', 'ippnu', 'tanjangawan', 'gresik']</t>
         </is>
@@ -2047,10 +2272,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>13394</v>
+        <v>28999</v>
       </c>
       <c r="C46" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2064,15 +2289,20 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>['live', 'gresik', 'pelantikan', 'ipnu', 'ippnu', 'tanjangawan', 'gresik', 'bersama', 'gus', 'muwafiq', 'januari', 'melalui']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>['live', 'gresik', 'pelantikan', 'ipnu', 'ippnu', 'tanjangawan', 'gresik', 'gus', 'muwafiq', 'januari']</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>['live', 'gresik', 'lantik', 'ipnu', 'ippnu', 'tanjangawan', 'gresik', 'gus', 'muwafiq', 'januari']</t>
         </is>
@@ -2083,10 +2313,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13395</v>
+        <v>29000</v>
       </c>
       <c r="C47" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2100,15 +2330,20 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>['live', 'gresik', 'pelantikan', 'ipnu', 'ippnu', 'tanjangawan', 'gresik', 'bersama', 'gus', 'muwafiq', 'januari', 'melalui']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>['live', 'gresik', 'pelantikan', 'ipnu', 'ippnu', 'tanjangawan', 'gresik', 'gus', 'muwafiq', 'januari']</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>['live', 'gresik', 'lantik', 'ipnu', 'ippnu', 'tanjangawan', 'gresik', 'gus', 'muwafiq', 'januari']</t>
         </is>
@@ -2119,10 +2354,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>13396</v>
+        <v>29001</v>
       </c>
       <c r="C48" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2136,15 +2371,20 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>['live', 'lamongan', 'pelantikan', 'gp', 'ansor', 'muslimat', 'fatayat', 'tunggul', 'bersama', 'gus', 'muwafiq', 'januari', 'melalui']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>['live', 'lamongan', 'pelantikan', 'gp', 'ansor', 'muslimat', 'fatayat', 'tunggul', 'gus', 'muwafiq', 'januari']</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>['live', 'lamongan', 'lantik', 'gp', 'ansor', 'muslimat', 'fatayat', 'tunggul', 'gus', 'muwafiq', 'januari']</t>
         </is>
@@ -2155,10 +2395,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>13397</v>
+        <v>29002</v>
       </c>
       <c r="C49" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2172,17 +2412,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>['saya', 'menambahkan', 'video', 'ke', 'playlist', 'live', 'pasuruan', 'mengaji', 'bareng', 'gus', 'muwafiq', 'januari']</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>['video', 'playlist', 'live', 'pasuruan', 'ngaji', 'bareng', 'gus', 'muwafiq', 'januari']</t>
-        </is>
-      </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['video', 'playlist', 'live', 'pasuruan', 'ngaji', 'bareng', 'gus', 'muwafiq', 'januari']</t>
+          <t>['video', 'playlist', 'live', 'pasuruan', 'mengaji', 'bareng', 'gus', 'muwafiq', 'januari']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['video', 'playlist', 'live', 'pasuruan', 'aji', 'bareng', 'gus', 'muwafiq', 'januari']</t>
         </is>
       </c>
     </row>
@@ -2191,10 +2436,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13398</v>
+        <v>29003</v>
       </c>
       <c r="C50" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2208,17 +2453,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>['live', 'pasuruan', 'mengaji', 'bareng', 'gus', 'muwafiq', 'januari', 'melalui']</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>['live', 'pasuruan', 'ngaji', 'bareng', 'gus', 'muwafiq', 'januari']</t>
-        </is>
-      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['live', 'pasuruan', 'ngaji', 'bareng', 'gus', 'muwafiq', 'januari']</t>
+          <t>['live', 'pasuruan', 'mengaji', 'bareng', 'gus', 'muwafiq', 'januari']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['live', 'pasuruan', 'aji', 'bareng', 'gus', 'muwafiq', 'januari']</t>
         </is>
       </c>
     </row>
@@ -2227,10 +2477,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>13399</v>
+        <v>29004</v>
       </c>
       <c r="C51" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2244,17 +2494,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>['live', 'demak', 'mengaji', 'bareng', 'bersama', 'gus', 'muwafiq', 'januari', 'melalui']</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>['live', 'demak', 'ngaji', 'bareng', 'gus', 'muwafiq', 'januari']</t>
-        </is>
-      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['live', 'demak', 'ngaji', 'bareng', 'gus', 'muwafiq', 'januari']</t>
+          <t>['live', 'demak', 'mengaji', 'bareng', 'gus', 'muwafiq', 'januari']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['live', 'demak', 'aji', 'bareng', 'gus', 'muwafiq', 'januari']</t>
         </is>
       </c>
     </row>
@@ -2263,10 +2518,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>13400</v>
+        <v>29005</v>
       </c>
       <c r="C52" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2280,17 +2535,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>['saya', 'menambahkan', 'video', 'ke', 'playlist', 'live', 'demak', 'mengaji', 'bareng', 'bersama', 'gus', 'muwafiq', 'januari']</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>['video', 'playlist', 'live', 'demak', 'ngaji', 'bareng', 'gus', 'muwafiq', 'januari']</t>
-        </is>
-      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['video', 'playlist', 'live', 'demak', 'ngaji', 'bareng', 'gus', 'muwafiq', 'januari']</t>
+          <t>['video', 'playlist', 'live', 'demak', 'mengaji', 'bareng', 'gus', 'muwafiq', 'januari']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['video', 'playlist', 'live', 'demak', 'aji', 'bareng', 'gus', 'muwafiq', 'januari']</t>
         </is>
       </c>
     </row>
@@ -2299,10 +2559,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>13401</v>
+        <v>29006</v>
       </c>
       <c r="C53" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2316,15 +2576,20 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>['live', 'kudus', 'haul', 'kh', 'kamaluddin', 'wachid', 'ke', 'bersama', 'gus', 'muwafiq', 'januari', 'melalui']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>['live', 'kudus', 'haul', 'kh', 'kamaluddin', 'wachid', 'gus', 'muwafiq', 'januari']</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>['live', 'kudus', 'haul', 'kh', 'kamaluddin', 'wachid', 'gus', 'muwafiq', 'januari']</t>
         </is>
@@ -2335,10 +2600,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>13402</v>
+        <v>29007</v>
       </c>
       <c r="C54" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2352,15 +2617,20 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>['saya', 'menambahkan', 'video', 'ke', 'playlist', 'live', 'kudus', 'haul', 'kh', 'kamaluddin', 'wachid', 'ke', 'bersama', 'gus', 'muwafiq']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>['video', 'playlist', 'live', 'kudus', 'haul', 'kh', 'kamaluddin', 'wachid', 'gus', 'muwafiq']</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>['video', 'playlist', 'live', 'kudus', 'haul', 'kh', 'kamaluddin', 'wachid', 'gus', 'muwafiq']</t>
         </is>
@@ -2371,10 +2641,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>13403</v>
+        <v>29008</v>
       </c>
       <c r="C55" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2388,15 +2658,20 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>['saya', 'menambahkan', 'video', 'ke', 'playlist', 'live', 'pati', 'haul', 'syeh', 'muhammad', 'nuh', 'ke', 'bersama', 'gus', 'muwafiq']</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>['video', 'playlist', 'live', 'pati', 'haul', 'syeh', 'muhammad', 'nuh', 'gus', 'muwafiq']</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>['video', 'playlist', 'live', 'pati', 'haul', 'syeh', 'muhammad', 'nuh', 'gus', 'muwafiq']</t>
         </is>
@@ -2407,10 +2682,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>13404</v>
+        <v>29009</v>
       </c>
       <c r="C56" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2424,15 +2699,20 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>['live', 'pati', 'haul', 'syeh', 'muhammad', 'nuh', 'ke', 'bersama', 'gus', 'muwafiq', 'januari', 'melalui']</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>['live', 'pati', 'haul', 'syeh', 'muhammad', 'nuh', 'gus', 'muwafiq', 'januari']</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>['live', 'pati', 'haul', 'syeh', 'muhammad', 'nuh', 'gus', 'muwafiq', 'januari']</t>
         </is>
@@ -2443,10 +2723,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>13405</v>
+        <v>29010</v>
       </c>
       <c r="C57" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2460,17 +2740,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>['saya', 'menambahkan', 'video', 'ke', 'playlist', 'live', 'lampung', 'mengaji', 'kebangsaan', 'dalam', 'rangka', 'bersih', 'desa', 'bersama']</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>['video', 'playlist', 'live', 'lampung', 'ngaji', 'kebangsaan', 'rangka', 'bersih', 'desa']</t>
-        </is>
-      </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['video', 'playlist', 'live', 'lampung', 'ngaji', 'bangsa', 'rangka', 'bersih', 'desa']</t>
+          <t>['video', 'playlist', 'live', 'lampung', 'mengaji', 'kebangsaan', 'rangka', 'bersih', 'desa']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['video', 'playlist', 'live', 'lampung', 'aji', 'bangsa', 'rangka', 'bersih', 'desa']</t>
         </is>
       </c>
     </row>
@@ -2479,10 +2764,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>13406</v>
+        <v>29011</v>
       </c>
       <c r="C58" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2496,17 +2781,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>['live', 'lampung', 'mengaji', 'kebangsaan', 'dalam', 'rangka', 'bersih', 'desa', 'bersama', 'gus', 'muwafiq', 'januari', 'melalui']</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>['live', 'lampung', 'ngaji', 'kebangsaan', 'rangka', 'bersih', 'desa', 'gus', 'muwafiq', 'januari']</t>
-        </is>
-      </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['live', 'lampung', 'ngaji', 'bangsa', 'rangka', 'bersih', 'desa', 'gus', 'muwafiq', 'januari']</t>
+          <t>['live', 'lampung', 'mengaji', 'kebangsaan', 'rangka', 'bersih', 'desa', 'gus', 'muwafiq', 'januari']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['live', 'lampung', 'aji', 'bangsa', 'rangka', 'bersih', 'desa', 'gus', 'muwafiq', 'januari']</t>
         </is>
       </c>
     </row>
@@ -2515,10 +2805,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>13407</v>
+        <v>29012</v>
       </c>
       <c r="C59" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2532,17 +2822,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>['saya', 'menambahkan', 'video', 'ke', 'playlist', 'live', 'jakarta', 'silaturahmi', 'kementerian, pedesaan', 'bersama', 'gus', 'muwafiq']</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>['video', 'playlist', 'live', 'jakarta', 'silaturahmi', 'kemendes', 'gus', 'muwafiq']</t>
-        </is>
-      </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['video', 'playlist', 'live', 'jakarta', 'silaturahmi', 'kemendes', 'gus', 'muwafiq']</t>
+          <t>['video', 'playlist', 'live', 'jakarta', 'silaturahmi', 'kementerian, pedesaan', 'gus', 'muwafiq']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['video', 'playlist', 'live', 'jakarta', 'silaturahmi', 'menteri desa', 'gus', 'muwafiq']</t>
         </is>
       </c>
     </row>
@@ -2551,10 +2846,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>13408</v>
+        <v>29013</v>
       </c>
       <c r="C60" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2568,17 +2863,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>['live', 'jakarta', 'silaturahmi', 'kementerian, pedesaan', 'bersama', 'gus', 'muwafiq', 'januari', 'melalui']</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>['live', 'jakarta', 'silaturahmi', 'kemendes', 'gus', 'muwafiq', 'januari']</t>
-        </is>
-      </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['live', 'jakarta', 'silaturahmi', 'kemendes', 'gus', 'muwafiq', 'januari']</t>
+          <t>['live', 'jakarta', 'silaturahmi', 'kementerian, pedesaan', 'gus', 'muwafiq', 'januari']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['live', 'jakarta', 'silaturahmi', 'menteri desa', 'gus', 'muwafiq', 'januari']</t>
         </is>
       </c>
     </row>
@@ -2587,10 +2887,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>13409</v>
+        <v>29014</v>
       </c>
       <c r="C61" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2604,17 +2904,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>['saya', 'menambahkan', 'video', 'ke', 'playlist', 'live', 'lampung', 'haul', 'syekh', 'abdul', 'qodir', 'al', 'jailani', 'bersama', 'gus']</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>['video', 'playlist', 'live', 'lampung', 'haul', 'syeikh', 'abdul', 'qodir', 'al', 'jailani', 'gus']</t>
-        </is>
-      </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['video', 'playlist', 'live', 'lampung', 'haul', 'syeikh', 'abdul', 'qodir', 'al', 'jailani', 'gus']</t>
+          <t>['video', 'playlist', 'live', 'lampung', 'haul', 'syekh', 'abdul', 'qodir', 'al', 'jailani', 'gus']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['video', 'playlist', 'live', 'lampung', 'haul', 'syekh', 'abdul', 'qodir', 'al', 'jailani', 'gus']</t>
         </is>
       </c>
     </row>
@@ -2623,10 +2928,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>13410</v>
+        <v>29015</v>
       </c>
       <c r="C62" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2640,17 +2945,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>['live', 'lampung', 'haul', 'syekh', 'abdul', 'qodir', 'al', 'jailani', 'bersama', 'gus', 'muwafiq', 'januari', 'melalui']</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>['live', 'lampung', 'haul', 'syeikh', 'abdul', 'qodir', 'al', 'jailani', 'gus', 'muwafiq', 'januari']</t>
-        </is>
-      </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['live', 'lampung', 'haul', 'syeikh', 'abdul', 'qodir', 'al', 'jailani', 'gus', 'muwafiq', 'januari']</t>
+          <t>['live', 'lampung', 'haul', 'syekh', 'abdul', 'qodir', 'al', 'jailani', 'gus', 'muwafiq', 'januari']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['live', 'lampung', 'haul', 'syekh', 'abdul', 'qodir', 'al', 'jailani', 'gus', 'muwafiq', 'januari']</t>
         </is>
       </c>
     </row>
@@ -2659,10 +2969,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>13411</v>
+        <v>29016</v>
       </c>
       <c r="C63" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2676,17 +2986,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>['live', 'semarang', 'tahun', 'sekolah, dasar', 'nasima', 'bersama', 'gus', 'muwafiq', 'januari', 'melalui']</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>['live', 'semarang', 'sd', 'nasima', 'gus', 'muwafiq', 'januari']</t>
-        </is>
-      </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['live', 'semarang', 'sd', 'nasima', 'gus', 'muwafiq', 'januari']</t>
+          <t>['live', 'semarang', 'sekolah, dasar', 'nasima', 'gus', 'muwafiq', 'januari']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['live', 'semarang', 'sekolah dasar', 'nasima', 'gus', 'muwafiq', 'januari']</t>
         </is>
       </c>
     </row>
@@ -2695,10 +3010,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>13412</v>
+        <v>29017</v>
       </c>
       <c r="C64" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2712,15 +3027,20 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>['saya', 'menambahkan', 'video', 'ke', 'playlist', 'live', 'lamongan', 'jamaah', 'al', 'khidmah', 'peringatan', 'maulid', 'nabi', 'bersama']</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>['video', 'playlist', 'live', 'lamongan', 'jamaah', 'al', 'khidmah', 'peringatan', 'maulid', 'nabi']</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>['video', 'playlist', 'live', 'lamongan', 'jamaah', 'al', 'khidmah', 'ingat', 'maulid', 'nabi']</t>
         </is>
@@ -2731,10 +3051,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>13413</v>
+        <v>29018</v>
       </c>
       <c r="C65" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2748,15 +3068,20 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>['live', 'lamongan', 'jamaah', 'al', 'khidmah', 'peringatan', 'maulid', 'nabi', 'bersama', 'gus', 'muwafiq', 'januari', 'melalui']</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>['live', 'lamongan', 'jamaah', 'al', 'khidmah', 'peringatan', 'maulid', 'nabi', 'gus', 'muwafiq', 'januari']</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>['live', 'lamongan', 'jamaah', 'al', 'khidmah', 'ingat', 'maulid', 'nabi', 'gus', 'muwafiq', 'januari']</t>
         </is>
@@ -2767,10 +3092,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>13414</v>
+        <v>29019</v>
       </c>
       <c r="C66" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2784,15 +3109,20 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>['saya', 'menambahkan', 'video', 'ke', 'playlist', 'live', 'gresik', 'peringatan', 'maulid', 'nabi', 'bersama', 'gus', 'muwafiq']</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>['video', 'playlist', 'live', 'gresik', 'peringatan', 'maulid', 'nabi', 'gus', 'muwafiq']</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>['video', 'playlist', 'live', 'gresik', 'ingat', 'maulid', 'nabi', 'gus', 'muwafiq']</t>
         </is>
@@ -2803,10 +3133,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>13415</v>
+        <v>29020</v>
       </c>
       <c r="C67" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2820,15 +3150,20 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>['live', 'gresik', 'peringatan', 'maulid', 'nabi', 'bersama', 'gus', 'muwafiq', 'januari', 'melalui']</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>['live', 'gresik', 'peringatan', 'maulid', 'nabi', 'gus', 'muwafiq', 'januari']</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>['live', 'gresik', 'ingat', 'maulid', 'nabi', 'gus', 'muwafiq', 'januari']</t>
         </is>
@@ -2839,10 +3174,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>13416</v>
+        <v>29021</v>
       </c>
       <c r="C68" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2856,15 +3191,20 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t>['live', 'gresik', 'haul', 'ke', 'kh', 'ahmad', 'maimun', 'adnan', 'bersama', 'gus', 'muwafiq', 'januari', 'melalui']</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>['live', 'gresik', 'haul', 'kh', 'ahmad', 'maimun', 'adnan', 'gus', 'muwafiq', 'januari']</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>['live', 'gresik', 'haul', 'kh', 'ahmad', 'maimun', 'adnan', 'gus', 'muwafiq', 'januari']</t>
         </is>
@@ -2875,10 +3215,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>13417</v>
+        <v>29022</v>
       </c>
       <c r="C69" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2892,15 +3232,20 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t>['saya', 'menambahkan', 'video', 'ke', 'playlist', 'live', 'gresik', 'haul', 'ke', 'kh', 'ahmad', 'maimun', 'adnan', 'bersama', 'gus', 'muwafiq']</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>['video', 'playlist', 'live', 'gresik', 'haul', 'kh', 'ahmad', 'maimun', 'adnan', 'gus', 'muwafiq']</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>['video', 'playlist', 'live', 'gresik', 'haul', 'kh', 'ahmad', 'maimun', 'adnan', 'gus', 'muwafiq']</t>
         </is>
@@ -2911,10 +3256,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>13418</v>
+        <v>29023</v>
       </c>
       <c r="C70" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2928,15 +3273,20 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>['saya', 'menambahkan', 'video', 'ke', 'playlist', 'siaran', 'ulang', 'sampit', 'pengajian', 'akbar', 'tahun', 'baru', 'islam']</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>['video', 'playlist', 'siaran', 'ulang', 'sampit', 'pengajian', 'akbar', 'islam']</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>['video', 'playlist', 'siar', 'ulang', 'sampit', 'aji', 'akbar', 'islam']</t>
         </is>
@@ -2947,10 +3297,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>13419</v>
+        <v>29024</v>
       </c>
       <c r="C71" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2964,15 +3314,20 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>['siaran', 'ulang', 'sampit', 'pengajian', 'akbar', 'tahun', 'baru', 'islam', 'bersama', 'gus', 'muwafiq', 'melalui']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>['siaran', 'ulang', 'sampit', 'pengajian', 'akbar', 'islam', 'gus', 'muwafiq']</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>['siar', 'ulang', 'sampit', 'aji', 'akbar', 'islam', 'gus', 'muwafiq']</t>
         </is>
@@ -2983,10 +3338,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>13420</v>
+        <v>29025</v>
       </c>
       <c r="C72" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -3000,15 +3355,20 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>['kediri', 'pengajian', 'akbar', 'tahun', 'baru', 'islam', 'bersama', 'gus', 'muwafiq', 'melalui']</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>['kediri', 'pengajian', 'akbar', 'islam', 'gus', 'muwafiq']</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>['diri', 'aji', 'akbar', 'islam', 'gus', 'muwafiq']</t>
         </is>
@@ -3019,10 +3379,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>13421</v>
+        <v>29026</v>
       </c>
       <c r="C73" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -3036,15 +3396,20 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>['saya', 'menambahkan', 'video', 'ke', 'playlist', 'kediri', 'pengajian', 'akbar', 'tahun', 'baru', 'islam', 'bersama', 'gus']</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>['video', 'playlist', 'kediri', 'pengajian', 'akbar', 'islam', 'gus']</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>['video', 'playlist', 'diri', 'aji', 'akbar', 'islam', 'gus']</t>
         </is>
@@ -3055,10 +3420,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>13422</v>
+        <v>29027</v>
       </c>
       <c r="C74" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3072,17 +3437,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>['edisi', 'liburan', 'prambanan', 'famili', 'time', 'episode', 'melalui']</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>['edisi', 'liburan', 'prambanan', 'family', 'time', 'eps']</t>
-        </is>
-      </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['edisi', 'libur', 'prambanan', 'family', 'time', 'eps']</t>
+          <t>['edisi', 'liburan', 'prambanan', 'famili', 'time', 'episode']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['edisi', 'libur', 'prambanan', 'famili', 'time', 'episode']</t>
         </is>
       </c>
     </row>
@@ -3091,10 +3461,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>13423</v>
+        <v>29028</v>
       </c>
       <c r="C75" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3108,17 +3478,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
+          <t>['saya', 'menambahkan', 'video', 'ke', 'playlist', 'edisi', 'liburan', 'prambanan', 'famili', 'time', 'episode']</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>['video', 'playlist', 'edisi', 'liburan', 'prambanan', 'family', 'time', 'eps']</t>
-        </is>
-      </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['video', 'playlist', 'edisi', 'libur', 'prambanan', 'family', 'time', 'eps']</t>
+          <t>['video', 'playlist', 'edisi', 'liburan', 'prambanan', 'famili', 'time', 'episode']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['video', 'playlist', 'edisi', 'libur', 'prambanan', 'famili', 'time', 'episode']</t>
         </is>
       </c>
     </row>
@@ -3127,10 +3502,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>13424</v>
+        <v>29029</v>
       </c>
       <c r="C76" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3144,17 +3519,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
+          <t>['saya', 'menambahkan', 'video', 'ke', 'playlist', 'banyuwangi', 'mengaji', 'ahad', 'wage', 'dan', 'peringatan', 'maulid', 'nabi', 'bersama']</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>['video', 'playlist', 'banyuwangi', 'ngaji', 'ahad', 'wage', 'peringatan', 'maulid', 'nabi']</t>
-        </is>
-      </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['video', 'playlist', 'banyuwangi', 'ngaji', 'ahad', 'wage', 'ingat', 'maulid', 'nabi']</t>
+          <t>['video', 'playlist', 'banyuwangi', 'mengaji', 'ahad', 'wage', 'peringatan', 'maulid', 'nabi']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['video', 'playlist', 'banyuwangi', 'aji', 'ahad', 'wage', 'ingat', 'maulid', 'nabi']</t>
         </is>
       </c>
     </row>
@@ -3163,10 +3543,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>13425</v>
+        <v>29030</v>
       </c>
       <c r="C77" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3180,17 +3560,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
+          <t>['siaran', 'ulang', 'banyuwangi', 'mengaji', 'ahad', 'wage', 'dan', 'menyambut', 'maulid', 'nabi', 'bersama', 'gus', 'muwafiq', 'melalui']</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>['siaran', 'ulang', 'banyuwangi', 'ngaji', 'ahad', 'wage', 'menyambut', 'maulid', 'nabi', 'gus', 'muwafiq']</t>
-        </is>
-      </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['siar', 'ulang', 'banyuwangi', 'ngaji', 'ahad', 'wage', 'sambut', 'maulid', 'nabi', 'gus', 'muwafiq']</t>
+          <t>['siaran', 'ulang', 'banyuwangi', 'mengaji', 'ahad', 'wage', 'menyambut', 'maulid', 'nabi', 'gus', 'muwafiq']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['siar', 'ulang', 'banyuwangi', 'aji', 'ahad', 'wage', 'sambut', 'maulid', 'nabi', 'gus', 'muwafiq']</t>
         </is>
       </c>
     </row>
@@ -3199,10 +3584,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>13426</v>
+        <v>29031</v>
       </c>
       <c r="C78" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3216,15 +3601,20 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>['saya', 'menambahkan', 'video', 'ke', 'playlist', 'siaran', 'ulang', 'pekalongan', 'peringatan', 'maulid', 'nabi', 'bersama', 'gus']</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>['video', 'playlist', 'siaran', 'ulang', 'pekalongan', 'peringatan', 'maulid', 'nabi', 'gus']</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>['video', 'playlist', 'siar', 'ulang', 'kalong', 'ingat', 'maulid', 'nabi', 'gus']</t>
         </is>
@@ -3235,10 +3625,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>13427</v>
+        <v>29032</v>
       </c>
       <c r="C79" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3252,15 +3642,20 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>['siaran', 'ulang', 'pekalongan', 'peringatan', 'maulid', 'nabi', 'bersama', 'gus', 'muwafiq', 'melalui']</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>['siaran', 'ulang', 'pekalongan', 'peringatan', 'maulid', 'nabi', 'gus', 'muwafiq']</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>['siar', 'ulang', 'kalong', 'ingat', 'maulid', 'nabi', 'gus', 'muwafiq']</t>
         </is>
@@ -3271,10 +3666,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>13428</v>
+        <v>29033</v>
       </c>
       <c r="C80" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3288,15 +3683,20 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
+          <t>['lakilaki', 'penyebab', 'perempuan', 'banyak', 'masuk', 'neraka', 'gus', 'muwafiq', 'melalui']</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>['lakilaki', 'penyebab', 'perempuan', 'masuk', 'neraka', 'gus', 'muwafiq']</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>['lakilaki', 'sebab', 'perempuan', 'masuk', 'neraka', 'gus', 'muwafiq']</t>
         </is>
@@ -3307,10 +3707,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>13429</v>
+        <v>29034</v>
       </c>
       <c r="C81" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3324,15 +3724,20 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
+          <t>['saya', 'menambahkan', 'video', 'ke', 'playlist', 'lakilaki', 'penyebab', 'perempuan', 'banyak', 'masuk', 'neraka', 'gus', 'muwafiq']</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>['video', 'playlist', 'lakilaki', 'penyebab', 'perempuan', 'masuk', 'neraka', 'gus', 'muwafiq']</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>['video', 'playlist', 'lakilaki', 'sebab', 'perempuan', 'masuk', 'neraka', 'gus', 'muwafiq']</t>
         </is>
@@ -3343,10 +3748,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>13430</v>
+        <v>29035</v>
       </c>
       <c r="C82" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3360,15 +3765,20 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
+          <t>['kenapa', 'harus', 'ber', 'nu', 'oleh', 'gus', 'muwafiq', 'melalui']</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>['ber', 'nu', 'gus', 'muwafiq']</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>['ber', 'nu', 'gus', 'muwafiq']</t>
         </is>
@@ -3379,10 +3789,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>13431</v>
+        <v>29036</v>
       </c>
       <c r="C83" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3396,15 +3806,20 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
+          <t>['saya', 'menambahkan', 'video', 'ke', 'playlist', 'kenapa', 'harus', 'ber', 'nu', 'oleh', 'gus', 'muwafiq']</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>['video', 'playlist', 'ber', 'nu', 'gus', 'muwafiq']</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>['video', 'playlist', 'ber', 'nu', 'gus', 'muwafiq']</t>
         </is>
@@ -3415,10 +3830,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>13432</v>
+        <v>29037</v>
       </c>
       <c r="C84" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -3432,15 +3847,20 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
+          <t>['saya', 'menambahkan', 'video', 'ke', 'playlist', 'live', 'gresik', 'peringatan', 'maulid', 'nabi', 'bersama', 'gus', 'muwafiq']</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>['video', 'playlist', 'live', 'gresik', 'peringatan', 'maulid', 'nabi', 'gus', 'muwafiq']</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>['video', 'playlist', 'live', 'gresik', 'ingat', 'maulid', 'nabi', 'gus', 'muwafiq']</t>
         </is>
@@ -3451,10 +3871,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>13433</v>
+        <v>29038</v>
       </c>
       <c r="C85" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3468,15 +3888,20 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
+          <t>['live', 'gresik', 'peringatan', 'maulid', 'nabi', 'bersama', 'gus', 'muwafiq', 'desember', 'melalui']</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>['live', 'gresik', 'peringatan', 'maulid', 'nabi', 'gus', 'muwafiq', 'desember']</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>['live', 'gresik', 'ingat', 'maulid', 'nabi', 'gus', 'muwafiq', 'desember']</t>
         </is>
@@ -3487,10 +3912,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>13434</v>
+        <v>29039</v>
       </c>
       <c r="C86" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3504,17 +3929,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
+          <t>['saya', 'menambahkan', 'video', 'ke', 'playlist', 'live', 'gresik', 'mengaji', 'bareng', 'gus', 'muwafiq', 'dalam', 'rangka', 'peringatan']</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>['video', 'playlist', 'live', 'gresik', 'ngaji', 'bareng', 'gus', 'muwafiq', 'rangka', 'peringatan']</t>
-        </is>
-      </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['video', 'playlist', 'live', 'gresik', 'ngaji', 'bareng', 'gus', 'muwafiq', 'rangka', 'ingat']</t>
+          <t>['video', 'playlist', 'live', 'gresik', 'mengaji', 'bareng', 'gus', 'muwafiq', 'rangka', 'peringatan']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['video', 'playlist', 'live', 'gresik', 'aji', 'bareng', 'gus', 'muwafiq', 'rangka', 'ingat']</t>
         </is>
       </c>
     </row>
@@ -3523,10 +3953,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>13435</v>
+        <v>29040</v>
       </c>
       <c r="C87" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3540,17 +3970,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
+          <t>['live', 'gresik', 'mengaji', 'bareng', 'gus', 'muwafiq', 'dalam', 'rangka', 'peringatan', 'maulid', 'nabi', 'desember', 'melalui']</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>['live', 'gresik', 'ngaji', 'bareng', 'gus', 'muwafiq', 'rangka', 'peringatan', 'maulid', 'nabi', 'desember']</t>
-        </is>
-      </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['live', 'gresik', 'ngaji', 'bareng', 'gus', 'muwafiq', 'rangka', 'ingat', 'maulid', 'nabi', 'desember']</t>
+          <t>['live', 'gresik', 'mengaji', 'bareng', 'gus', 'muwafiq', 'rangka', 'peringatan', 'maulid', 'nabi', 'desember']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['live', 'gresik', 'aji', 'bareng', 'gus', 'muwafiq', 'rangka', 'ingat', 'maulid', 'nabi', 'desember']</t>
         </is>
       </c>
     </row>
@@ -3559,10 +3994,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>13436</v>
+        <v>29041</v>
       </c>
       <c r="C88" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3576,15 +4011,20 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>['saya', 'menambahkan', 'video', 'ke', 'playlist', 'live', 'kendal', 'peringatan', 'maulid', 'nabi', 'bareng', 'gus', 'muwafiq']</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>['video', 'playlist', 'live', 'kendal', 'peringatan', 'maulid', 'nabi', 'bareng', 'gus', 'muwafiq']</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>['video', 'playlist', 'live', 'kendal', 'ingat', 'maulid', 'nabi', 'bareng', 'gus', 'muwafiq']</t>
         </is>
@@ -3595,10 +4035,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>13437</v>
+        <v>29042</v>
       </c>
       <c r="C89" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3612,15 +4052,20 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
+          <t>['live', 'kendal', 'peringatan', 'maulid', 'nabi', 'bareng', 'gus', 'muwafiq', 'desember', 'melalui']</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>['live', 'kendal', 'peringatan', 'maulid', 'nabi', 'bareng', 'gus', 'muwafiq', 'desember']</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>['live', 'kendal', 'ingat', 'maulid', 'nabi', 'bareng', 'gus', 'muwafiq', 'desember']</t>
         </is>
@@ -3631,10 +4076,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>13438</v>
+        <v>29043</v>
       </c>
       <c r="C90" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3648,15 +4093,20 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
+          <t>['saya', 'menambahkan', 'video', 'ke', 'playlist', 'live', 'magelang', 'peringatan', 'maulid', 'nabi', 'bareng', 'gus', 'muwafiq']</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>['video', 'playlist', 'live', 'magelang', 'peringatan', 'maulid', 'nabi', 'bareng', 'gus', 'muwafiq']</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>['video', 'playlist', 'live', 'magelang', 'ingat', 'maulid', 'nabi', 'bareng', 'gus', 'muwafiq']</t>
         </is>
@@ -3667,10 +4117,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>13439</v>
+        <v>29044</v>
       </c>
       <c r="C91" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3684,15 +4134,20 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
+          <t>['live', 'magelang', 'peringatan', 'maulid', 'nabi', 'bareng', 'gus', 'muwafiq', 'desember', 'melalui']</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>['live', 'magelang', 'peringatan', 'maulid', 'nabi', 'bareng', 'gus', 'muwafiq', 'desember']</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>['live', 'magelang', 'ingat', 'maulid', 'nabi', 'bareng', 'gus', 'muwafiq', 'desember']</t>
         </is>
@@ -3703,10 +4158,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>13440</v>
+        <v>29045</v>
       </c>
       <c r="C92" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3720,17 +4175,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
+          <t>['saya', 'menambahkan', 'video', 'ke', 'playlist', 'live', 'berau', 'kalimantan, timur', 'tahun', 'trans', 'labanan', 'mengaji', 'bareng', 'gus', 'muwafiq']</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>['video', 'playlist', 'live', 'berau', 'kaltim', 'th', 'trans', 'labanan', 'ngaji', 'bareng', 'gus', 'muwafiq']</t>
-        </is>
-      </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['video', 'playlist', 'live', 'rau', 'kaltim', 'th', 'trans', 'labanan', 'ngaji', 'bareng', 'gus', 'muwafiq']</t>
+          <t>['video', 'playlist', 'live', 'berau', 'kalimantan, timur', 'trans', 'labanan', 'mengaji', 'bareng', 'gus', 'muwafiq']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['video', 'playlist', 'live', 'rau', 'kalimantan timur', 'trans', 'labanan', 'aji', 'bareng', 'gus', 'muwafiq']</t>
         </is>
       </c>
     </row>
@@ -3739,10 +4199,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>13441</v>
+        <v>29046</v>
       </c>
       <c r="C93" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3756,17 +4216,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
+          <t>['live', 'berau', 'kalimantan, timur', 'tahun', 'trans', 'labanan', 'mengaji', 'bareng', 'gus', 'muwafiq', 'desember', 'melalui']</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>['live', 'berau', 'kaltim', 'th', 'trans', 'labanan', 'ngaji', 'bareng', 'gus', 'muwafiq', 'desember']</t>
-        </is>
-      </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['live', 'rau', 'kaltim', 'th', 'trans', 'labanan', 'ngaji', 'bareng', 'gus', 'muwafiq', 'desember']</t>
+          <t>['live', 'berau', 'kalimantan, timur', 'trans', 'labanan', 'mengaji', 'bareng', 'gus', 'muwafiq', 'desember']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['live', 'rau', 'kalimantan timur', 'trans', 'labanan', 'aji', 'bareng', 'gus', 'muwafiq', 'desember']</t>
         </is>
       </c>
     </row>
@@ -3775,10 +4240,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>13442</v>
+        <v>29047</v>
       </c>
       <c r="C94" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3792,15 +4257,20 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
+          <t>['alam', 'itu', 'memang', 'begitu', 'tidak', 'perlu', 'mengutuk', 'tuhan', 'atas', 'bencana', 'ini', 'gus', 'muwafiq', 'melalui']</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>['alam', 'mengutuk', 'tuhan', 'bencana', 'gus', 'muwafiq']</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>['alam', 'kutuk', 'tuhan', 'bencana', 'gus', 'muwafiq']</t>
         </is>
@@ -3811,10 +4281,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>13443</v>
+        <v>29048</v>
       </c>
       <c r="C95" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3828,15 +4298,20 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
+          <t>['saya', 'menambahkan', 'video', 'ke', 'playlist', 'alam', 'itu', 'memang', 'begitu', 'tidak', 'perlu', 'mengutuk', 'tuhan', 'atas', 'bencana']</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>['video', 'playlist', 'alam', 'mengutuk', 'tuhan', 'bencana']</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>['video', 'playlist', 'alam', 'kutuk', 'tuhan', 'bencana']</t>
         </is>
@@ -3847,10 +4322,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>13444</v>
+        <v>29049</v>
       </c>
       <c r="C96" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3864,17 +4339,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
+          <t>['saya', 'menambahkan', 'video', 'ke', 'playlist', 'live', 'kutai', 'timur', 'refleksi', 'akhir', 'tahun', 'dan', 'mengaji', 'bareng', 'gus']</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>['video', 'playlist', 'live', 'kutai', 'timur', 'refleksi', 'ngaji', 'bareng', 'gus']</t>
-        </is>
-      </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['video', 'playlist', 'live', 'kuta', 'timur', 'refleksi', 'ngaji', 'bareng', 'gus']</t>
+          <t>['video', 'playlist', 'live', 'kutai', 'timur', 'refleksi', 'mengaji', 'bareng', 'gus']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['video', 'playlist', 'live', 'kuta', 'timur', 'refleksi', 'aji', 'bareng', 'gus']</t>
         </is>
       </c>
     </row>
@@ -3883,10 +4363,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>13445</v>
+        <v>29050</v>
       </c>
       <c r="C97" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3900,17 +4380,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
+          <t>['live', 'kutai', 'timur', 'refleksi', 'akhir', 'tahun', 'dan', 'mengaji', 'bareng', 'gus', 'muwafiq', 'desember', 'melalui']</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>['live', 'kutai', 'timur', 'refleksi', 'ngaji', 'bareng', 'gus', 'muwafiq', 'desember']</t>
-        </is>
-      </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['live', 'kuta', 'timur', 'refleksi', 'ngaji', 'bareng', 'gus', 'muwafiq', 'desember']</t>
+          <t>['live', 'kutai', 'timur', 'refleksi', 'mengaji', 'bareng', 'gus', 'muwafiq', 'desember']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['live', 'kuta', 'timur', 'refleksi', 'aji', 'bareng', 'gus', 'muwafiq', 'desember']</t>
         </is>
       </c>
     </row>
@@ -3919,10 +4404,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>13446</v>
+        <v>29051</v>
       </c>
       <c r="C98" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3936,17 +4421,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
+          <t>['saya', 'menambahkan', 'video', 'ke', 'playlist', 'live', 'kutai', 'timur', 'bupati', 'dan', 'masyarakat', 'rantau', 'pulung', 'mengaji']</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>['video', 'playlist', 'live', 'kutai', 'timur', 'bupati', 'masyarakat', 'rantau', 'pulung', 'ngaji']</t>
-        </is>
-      </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['video', 'playlist', 'live', 'kuta', 'timur', 'bupati', 'masyarakat', 'rantau', 'pulung', 'ngaji']</t>
+          <t>['video', 'playlist', 'live', 'kutai', 'timur', 'bupati', 'masyarakat', 'rantau', 'pulung', 'mengaji']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['video', 'playlist', 'live', 'kuta', 'timur', 'bupati', 'masyarakat', 'rantau', 'pulung', 'aji']</t>
         </is>
       </c>
     </row>
@@ -3955,10 +4445,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>13447</v>
+        <v>29052</v>
       </c>
       <c r="C99" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3972,17 +4462,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
+          <t>['live', 'kutai', 'timur', 'bupati', 'dan', 'masyarakat', 'rantau', 'pulung', 'mengaji', 'bareng', 'gus', 'muwafiq', 'desember', 'melalui']</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>['live', 'kutai', 'timur', 'bupati', 'masyarakat', 'rantau', 'pulung', 'ngaji', 'bareng', 'gus', 'muwafiq', 'desember']</t>
-        </is>
-      </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['live', 'kuta', 'timur', 'bupati', 'masyarakat', 'rantau', 'pulung', 'ngaji', 'bareng', 'gus', 'muwafiq', 'desember']</t>
+          <t>['live', 'kutai', 'timur', 'bupati', 'masyarakat', 'rantau', 'pulung', 'mengaji', 'bareng', 'gus', 'muwafiq', 'desember']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['live', 'kuta', 'timur', 'bupati', 'masyarakat', 'rantau', 'pulung', 'aji', 'bareng', 'gus', 'muwafiq', 'desember']</t>
         </is>
       </c>
     </row>
@@ -3991,10 +4486,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>13448</v>
+        <v>29053</v>
       </c>
       <c r="C100" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -4008,15 +4503,20 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
+          <t>['saya', 'menambahkan', 'video', 'ke', 'playlist', 'live', 'jakarta', 'doa', 'untuk', 'indonesia', 'aman', 'dan', 'damai', 'bersama', 'gus']</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>['video', 'playlist', 'live', 'jakarta', 'doa', 'indonesia', 'aman', 'damai', 'gus']</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>['video', 'playlist', 'live', 'jakarta', 'doa', 'indonesia', 'aman', 'damai', 'gus']</t>
         </is>
@@ -4027,10 +4527,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>13449</v>
+        <v>29054</v>
       </c>
       <c r="C101" t="n">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -4044,15 +4544,20 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
+          <t>['live', 'jakarta', 'doa', 'untuk', 'indonesia', 'aman', 'dan', 'damai', 'bersama', 'gus', 'muwafiq', 'desember', 'melalui']</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>['live', 'jakarta', 'doa', 'indonesia', 'aman', 'damai', 'gus', 'muwafiq', 'desember']</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>['live', 'jakarta', 'doa', 'indonesia', 'aman', 'damai', 'gus', 'muwafiq', 'desember']</t>
         </is>
